--- a/www/ig/fhir/annuaire/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/www/ig/fhir/annuaire/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/www/ig/fhir/annuaire/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/CodeSystem-as-cs-type-systeme-information.xlsx
+++ b/www/ig/fhir/annuaire/CodeSystem-as-cs-type-systeme-information.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,6 +96,9 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -120,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -142,15 +145,6 @@
   </si>
   <si>
     <t>Répertoire partagé des professionnels de santé</t>
-  </si>
-  <si>
-    <t>ADELI</t>
-  </si>
-  <si>
-    <t>Numéro ADELI</t>
-  </si>
-  <si>
-    <t>Adeli est un répertoire national qui recense les professionnels de santé réglementés, qu'ils exercent en libéral ou salarial.</t>
   </si>
   <si>
     <t>FINESS</t>
@@ -421,52 +415,54 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,72 +480,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
